--- a/musicas.xlsx
+++ b/musicas.xlsx
@@ -2723,8 +2723,8 @@
   </sheetPr>
   <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A528" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F538" activeCellId="0" sqref="F538"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A525" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C536" activeCellId="0" sqref="C536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10224,15 +10224,25 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="1"/>
-      <c r="D536" s="1"/>
+      <c r="A536" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>302</v>
@@ -10246,7 +10256,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>302</v>
@@ -10260,7 +10270,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>302</v>
@@ -10274,7 +10284,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>302</v>
@@ -10288,7 +10298,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>302</v>
@@ -10302,7 +10312,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>302</v>
@@ -10316,7 +10326,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>302</v>
@@ -10330,7 +10340,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>302</v>
@@ -10344,7 +10354,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>302</v>
@@ -10358,7 +10368,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>302</v>
@@ -10372,7 +10382,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>302</v>
@@ -10386,7 +10396,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>302</v>
@@ -10400,7 +10410,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>302</v>
@@ -10414,7 +10424,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>302</v>
@@ -10428,7 +10438,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>302</v>
@@ -10442,7 +10452,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>302</v>
@@ -10456,7 +10466,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>302</v>
@@ -10470,7 +10480,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>302</v>
@@ -10484,7 +10494,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>302</v>
@@ -10498,7 +10508,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>302</v>
@@ -10512,7 +10522,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>302</v>
@@ -10526,7 +10536,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>302</v>
@@ -10540,7 +10550,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>302</v>
@@ -10554,7 +10564,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>302</v>
@@ -10568,7 +10578,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>302</v>
@@ -10582,7 +10592,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>302</v>
@@ -10596,7 +10606,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>302</v>
@@ -10610,7 +10620,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>302</v>
@@ -10624,7 +10634,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>302</v>
@@ -10638,7 +10648,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>302</v>
@@ -10652,7 +10662,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>302</v>
@@ -10666,7 +10676,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>302</v>
@@ -10680,7 +10690,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>302</v>
@@ -10694,7 +10704,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>302</v>
@@ -10708,7 +10718,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>302</v>
@@ -10722,7 +10732,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>302</v>
@@ -10736,7 +10746,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>302</v>
@@ -10750,7 +10760,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>302</v>
@@ -10764,7 +10774,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>302</v>
@@ -10778,7 +10788,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>302</v>
@@ -10792,7 +10802,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>302</v>
@@ -10806,7 +10816,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>302</v>
@@ -10820,7 +10830,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>302</v>
@@ -10834,7 +10844,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>302</v>
@@ -10848,13 +10858,13 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10862,7 +10872,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>302</v>
@@ -10876,7 +10886,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>302</v>
@@ -10890,7 +10900,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>302</v>
@@ -10904,7 +10914,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>302</v>
@@ -10918,7 +10928,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>302</v>
@@ -10932,7 +10942,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>302</v>
@@ -10946,7 +10956,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>302</v>
@@ -10960,7 +10970,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>302</v>
@@ -10974,7 +10984,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>302</v>
@@ -10988,7 +10998,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>302</v>
@@ -11002,7 +11012,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>302</v>
@@ -11016,7 +11026,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>302</v>
@@ -11030,7 +11040,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>302</v>
@@ -11044,7 +11054,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>302</v>
@@ -11058,7 +11068,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>302</v>
@@ -11072,7 +11082,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>302</v>
@@ -11086,7 +11096,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>302</v>
@@ -11100,7 +11110,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>302</v>
@@ -11114,7 +11124,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>302</v>
@@ -11128,7 +11138,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>302</v>
@@ -11142,7 +11152,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>302</v>
@@ -11156,7 +11166,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>302</v>
@@ -11170,7 +11180,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>302</v>
@@ -11184,7 +11194,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>302</v>
@@ -11198,7 +11208,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>302</v>
@@ -11212,7 +11222,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>302</v>
@@ -11226,7 +11236,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>302</v>
@@ -11240,7 +11250,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>302</v>
@@ -11254,7 +11264,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>302</v>
@@ -11268,7 +11278,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>302</v>
@@ -11282,7 +11292,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>302</v>
@@ -11296,7 +11306,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>302</v>
@@ -11310,7 +11320,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>302</v>
@@ -11324,7 +11334,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>302</v>
@@ -11338,7 +11348,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>302</v>
@@ -11352,7 +11362,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>302</v>
@@ -11366,7 +11376,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>302</v>
@@ -11380,7 +11390,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>302</v>
@@ -11394,7 +11404,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>302</v>
@@ -11408,7 +11418,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>302</v>
@@ -11422,7 +11432,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>302</v>
@@ -11436,7 +11446,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>302</v>
@@ -11450,7 +11460,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>302</v>
@@ -11464,7 +11474,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>302</v>
@@ -11478,7 +11488,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>302</v>
@@ -11492,7 +11502,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>302</v>
@@ -11506,7 +11516,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>302</v>
@@ -11520,7 +11530,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>302</v>
@@ -11534,7 +11544,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>302</v>
@@ -11548,7 +11558,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>302</v>
@@ -11562,7 +11572,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>302</v>
@@ -11576,7 +11586,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>302</v>
@@ -11590,7 +11600,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>302</v>
@@ -11604,7 +11614,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>302</v>
@@ -11618,7 +11628,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>302</v>
@@ -11632,7 +11642,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>302</v>
@@ -11646,7 +11656,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>302</v>
@@ -11660,7 +11670,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>302</v>
@@ -11674,7 +11684,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>302</v>
@@ -11688,7 +11698,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>302</v>
@@ -11702,7 +11712,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>302</v>
@@ -11716,7 +11726,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>302</v>
@@ -11730,7 +11740,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>302</v>
@@ -11744,7 +11754,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>302</v>
@@ -11758,7 +11768,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>302</v>
@@ -11772,7 +11782,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>302</v>
@@ -11786,7 +11796,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>302</v>
@@ -11800,7 +11810,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>302</v>
@@ -11814,7 +11824,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>302</v>
@@ -11828,7 +11838,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>302</v>
@@ -11842,7 +11852,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>302</v>
@@ -11856,7 +11866,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>302</v>
@@ -11870,7 +11880,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>302</v>
@@ -11884,7 +11894,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>302</v>
@@ -11898,7 +11908,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>302</v>
@@ -11912,7 +11922,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>302</v>
@@ -11926,7 +11936,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>302</v>
@@ -11940,7 +11950,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>302</v>
@@ -11954,7 +11964,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>302</v>
@@ -11968,7 +11978,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>302</v>
@@ -11982,7 +11992,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>302</v>
@@ -11996,7 +12006,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>302</v>
@@ -12010,7 +12020,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>302</v>
@@ -12024,7 +12034,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>302</v>
@@ -12038,7 +12048,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>302</v>
@@ -12052,7 +12062,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>302</v>
@@ -12066,7 +12076,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>302</v>
@@ -12080,7 +12090,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>302</v>
@@ -12094,7 +12104,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>302</v>
@@ -12108,7 +12118,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>302</v>
@@ -12122,7 +12132,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>302</v>
@@ -12136,7 +12146,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>302</v>
@@ -12150,7 +12160,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>302</v>
@@ -12164,7 +12174,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>302</v>
@@ -12178,7 +12188,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>302</v>
@@ -12192,7 +12202,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>302</v>
@@ -12206,7 +12216,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>302</v>
@@ -12220,7 +12230,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>302</v>
@@ -12234,7 +12244,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>302</v>
@@ -12244,18 +12254,8 @@
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B681" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D681" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B681" s="0"/>
+      <c r="C681" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
